--- a/Data/Processed/Angiosperms/missing_powo_ipni/Theophrastaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Theophrastaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publ. Field Mus. Nat. Hist., Bot. Ser. 8: 148. 1930 </t>
+          <t>Publ. Field Mus. Nat. Hist., Bot. Ser. 8: 148. 1930</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -565,7 +565,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 16: 425. 1920 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 16: 425. 1920</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -643,7 +643,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) 4, Fam. 236a: 27. 1903 </t>
+          <t>Pflanzenr. (Engler) 4, Fam. 236a: 27. 1903</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -721,7 +721,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 435. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 435. 1910</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -799,7 +799,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gartenflora 8: 245 (-246). 1859 </t>
+          <t>Gartenflora 8: 245 (-246). 1859</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -877,7 +877,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) 4, Fam. 236a: 22. 1903 </t>
+          <t>Pflanzenr. (Engler) 4, Fam. 236a: 22. 1903</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -955,7 +955,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syst. Veg., ed. 15 bis [Roemer &amp; Schultes] 4: 187 (-188). 1819 </t>
+          <t>Syst. Veg., ed. 15 bis [Roemer &amp; Schultes] 4: 187 (-188). 1819</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Flumin. 276. 1829 [1825 publ. 7 Sep-28 Nov 1829] </t>
+          <t>Fl. Flumin. 276. 1829 [1825 publ. 7 Sep-28 Nov 1829]</t>
         </is>
       </c>
       <c r="J9" t="b">
